--- a/simulated_data/10nodes_15len_trial5.xlsx
+++ b/simulated_data/10nodes_15len_trial5.xlsx
@@ -10,20 +10,27 @@
     <sheet name="rss_data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="true_dist" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="est_dist_data" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="rss_only_dist" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="rss_post_averaged_dist" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="spring_model_dist" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="spring_model_locs" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="sdp_dist" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="sdp_locs" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="mds_metric_dist" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="mds_metric_locs" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet name="mds_non_metric_dist" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet name="mds_non_metric_locs" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet name="sdp_init_spring_dist" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet name="sdp_init_spring_locs" sheetId="16" state="visible" r:id="rId16"/>
-    <sheet name="runtimes" sheetId="17" state="visible" r:id="rId17"/>
-    <sheet name="estimation_performance" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="spring_model_dist" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="spring_model_locs" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="estimation_performance" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="rss_only_dist" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="rss_pre_averaged_dist" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="rss_post_averaged_dist" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="spring_model_5inits_dist" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="spring_model_5inits_locs" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="sdp_dist" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="sdp_locs" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="mds_metric_dist" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="mds_metric_locs" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="mds_non_metric_dist" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet name="mds_non_metric_locs" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet name="sdp_init_spring_dist" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet name="sdp_init_spring_locs" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet name="lle_dist" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet name="lle_locs" sheetId="22" state="visible" r:id="rId22"/>
+    <sheet name="isomap_dist" sheetId="23" state="visible" r:id="rId23"/>
+    <sheet name="isomap_locs" sheetId="24" state="visible" r:id="rId24"/>
+    <sheet name="runtimes" sheetId="25" state="visible" r:id="rId25"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,7 +544,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,16 +559,64 @@
       <c r="C1" s="2" t="n">
         <v>1</v>
       </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.6018055270219509</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.6018055270194673</v>
+        <v>10.485</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.765000000000001</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.845</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="G2" t="n">
+        <v>13.285</v>
+      </c>
+      <c r="H2" t="n">
+        <v>12.41</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.06</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.755</v>
       </c>
     </row>
     <row r="3">
@@ -569,10 +624,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-4.786386545547126</v>
+        <v>10.485</v>
       </c>
       <c r="C3" t="n">
-        <v>-4.786386545545453</v>
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.325</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7.67</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14.365</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.405</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="I3" t="n">
+        <v>19.29</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16.51</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.255</v>
       </c>
     </row>
     <row r="4">
@@ -580,10 +659,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-4.148988122273153</v>
+        <v>9.765000000000001</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.148988122272174</v>
+        <v>6.325</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10.885</v>
+      </c>
+      <c r="F4" t="n">
+        <v>7.984999999999999</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.075</v>
+      </c>
+      <c r="J4" t="n">
+        <v>16.645</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.22</v>
       </c>
     </row>
     <row r="5">
@@ -591,10 +694,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.3995209347368294</v>
+        <v>1.845</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.3995209347424333</v>
+        <v>7.67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>10.885</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="G5" t="n">
+        <v>3.325</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.415</v>
+      </c>
+      <c r="J5" t="n">
+        <v>7.015</v>
+      </c>
+      <c r="K5" t="n">
+        <v>5.535</v>
       </c>
     </row>
     <row r="6">
@@ -602,10 +729,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2266500590003545</v>
+        <v>1.66</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2266500589972709</v>
+        <v>14.365</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.984999999999999</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.850000000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="J6" t="n">
+        <v>5.945</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.225</v>
       </c>
     </row>
     <row r="7">
@@ -613,10 +764,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.4322055525469537</v>
+        <v>13.285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.4322055525506159</v>
+        <v>11.405</v>
+      </c>
+      <c r="D7" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3.325</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>11.415</v>
+      </c>
+      <c r="I7" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.78</v>
       </c>
     </row>
     <row r="8">
@@ -624,10 +799,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-2.792788374589773</v>
+        <v>12.41</v>
       </c>
       <c r="C8" t="n">
-        <v>-2.792788374584572</v>
+        <v>1.72</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7.41</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.850000000000001</v>
+      </c>
+      <c r="G8" t="n">
+        <v>11.415</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>14.015</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="K8" t="n">
+        <v>8.56</v>
       </c>
     </row>
     <row r="9">
@@ -635,10 +834,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.3368346498376146</v>
+        <v>5.06</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3368346498487759</v>
+        <v>19.29</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.075</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.415</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="G9" t="n">
+        <v>11.74</v>
+      </c>
+      <c r="H9" t="n">
+        <v>14.015</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="K9" t="n">
+        <v>2.81</v>
       </c>
     </row>
     <row r="10">
@@ -646,10 +869,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.000737523900466</v>
+        <v>4.07</v>
       </c>
       <c r="C10" t="n">
-        <v>3.000737523922749</v>
+        <v>16.51</v>
+      </c>
+      <c r="D10" t="n">
+        <v>16.645</v>
+      </c>
+      <c r="E10" t="n">
+        <v>7.015</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5.945</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.52</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.29</v>
+      </c>
+      <c r="I10" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.675</v>
       </c>
     </row>
     <row r="11">
@@ -657,10 +904,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1</v>
+        <v>2.755</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
+        <v>16.255</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.22</v>
+      </c>
+      <c r="E11" t="n">
+        <v>5.535</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3.225</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.78</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.56</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.675</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -722,31 +993,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>12.28</v>
+        <v>8.59</v>
       </c>
       <c r="D2" t="n">
+        <v>7.76</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.22</v>
+      </c>
+      <c r="H2" t="n">
         <v>8.1</v>
       </c>
-      <c r="E2" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1.43</v>
-      </c>
-      <c r="G2" t="n">
-        <v>8.880000000000001</v>
-      </c>
-      <c r="H2" t="n">
-        <v>9.93</v>
-      </c>
       <c r="I2" t="n">
-        <v>3.43</v>
+        <v>5.45</v>
       </c>
       <c r="J2" t="n">
-        <v>5.55</v>
+        <v>4.66</v>
       </c>
       <c r="K2" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="3">
@@ -754,34 +1025,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12.28</v>
+        <v>8.59</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8.050000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>10.11</v>
+        <v>8.65</v>
       </c>
       <c r="F3" t="n">
-        <v>11.59</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>11.95</v>
+        <v>13.55</v>
       </c>
       <c r="H3" t="n">
-        <v>2.85</v>
+        <v>1.8</v>
       </c>
       <c r="I3" t="n">
-        <v>15.69</v>
+        <v>13.64</v>
       </c>
       <c r="J3" t="n">
-        <v>16.03</v>
+        <v>13.23</v>
       </c>
       <c r="K3" t="n">
-        <v>13.92</v>
+        <v>11.39</v>
       </c>
     </row>
     <row r="4">
@@ -789,34 +1060,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>8.1</v>
+        <v>7.76</v>
       </c>
       <c r="C4" t="n">
-        <v>8.050000000000001</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>8.73</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="F4" t="n">
-        <v>8.44</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="G4" t="n">
-        <v>13.65</v>
+        <v>14.97</v>
       </c>
       <c r="H4" t="n">
-        <v>7.63</v>
+        <v>9.93</v>
       </c>
       <c r="I4" t="n">
-        <v>10.73</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="J4" t="n">
-        <v>13.52</v>
+        <v>10.83</v>
       </c>
       <c r="K4" t="n">
-        <v>10.92</v>
+        <v>9.27</v>
       </c>
     </row>
     <row r="5">
@@ -824,34 +1095,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.7</v>
+        <v>2.48</v>
       </c>
       <c r="C5" t="n">
-        <v>10.11</v>
+        <v>8.65</v>
       </c>
       <c r="D5" t="n">
-        <v>8.73</v>
+        <v>9.960000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>2.31</v>
+        <v>1.39</v>
       </c>
       <c r="G5" t="n">
-        <v>5.55</v>
+        <v>5.37</v>
       </c>
       <c r="H5" t="n">
-        <v>7.39</v>
+        <v>7.66</v>
       </c>
       <c r="I5" t="n">
-        <v>6.69</v>
+        <v>7.15</v>
       </c>
       <c r="J5" t="n">
-        <v>5.93</v>
+        <v>5.35</v>
       </c>
       <c r="K5" t="n">
-        <v>3.93</v>
+        <v>3.96</v>
       </c>
     </row>
     <row r="6">
@@ -859,34 +1130,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="C6" t="n">
-        <v>11.59</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D6" t="n">
-        <v>8.44</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="E6" t="n">
-        <v>2.31</v>
+        <v>1.39</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>7.46</v>
+        <v>5.61</v>
       </c>
       <c r="H6" t="n">
-        <v>9.08</v>
+        <v>8.6</v>
       </c>
       <c r="I6" t="n">
-        <v>4.46</v>
+        <v>5.76</v>
       </c>
       <c r="J6" t="n">
-        <v>5.11</v>
+        <v>4.11</v>
       </c>
       <c r="K6" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="7">
@@ -894,34 +1165,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.880000000000001</v>
+        <v>7.22</v>
       </c>
       <c r="C7" t="n">
-        <v>11.95</v>
+        <v>13.55</v>
       </c>
       <c r="D7" t="n">
-        <v>13.65</v>
+        <v>14.97</v>
       </c>
       <c r="E7" t="n">
-        <v>5.55</v>
+        <v>5.37</v>
       </c>
       <c r="F7" t="n">
-        <v>7.46</v>
+        <v>5.61</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>9.18</v>
+        <v>12.23</v>
       </c>
       <c r="I7" t="n">
-        <v>11.01</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="J7" t="n">
-        <v>7.5</v>
+        <v>6.12</v>
       </c>
       <c r="K7" t="n">
-        <v>7.4</v>
+        <v>6.42</v>
       </c>
     </row>
     <row r="8">
@@ -929,34 +1200,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="D8" t="n">
         <v>9.93</v>
       </c>
-      <c r="C8" t="n">
-        <v>2.85</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7.63</v>
-      </c>
       <c r="E8" t="n">
-        <v>7.39</v>
+        <v>7.66</v>
       </c>
       <c r="F8" t="n">
-        <v>9.08</v>
+        <v>8.6</v>
       </c>
       <c r="G8" t="n">
-        <v>9.18</v>
+        <v>12.23</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>13.35</v>
+        <v>13.42</v>
       </c>
       <c r="J8" t="n">
-        <v>13.28</v>
+        <v>12.63</v>
       </c>
       <c r="K8" t="n">
-        <v>11.28</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="9">
@@ -964,34 +1235,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.43</v>
+        <v>5.45</v>
       </c>
       <c r="C9" t="n">
-        <v>15.69</v>
+        <v>13.64</v>
       </c>
       <c r="D9" t="n">
-        <v>10.73</v>
+        <v>9.210000000000001</v>
       </c>
       <c r="E9" t="n">
-        <v>6.69</v>
+        <v>7.15</v>
       </c>
       <c r="F9" t="n">
-        <v>4.46</v>
+        <v>5.76</v>
       </c>
       <c r="G9" t="n">
-        <v>11.01</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="H9" t="n">
-        <v>13.35</v>
+        <v>13.42</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.03</v>
+        <v>2.94</v>
       </c>
       <c r="K9" t="n">
-        <v>3.64</v>
+        <v>3.23</v>
       </c>
     </row>
     <row r="10">
@@ -999,34 +1270,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.55</v>
+        <v>4.66</v>
       </c>
       <c r="C10" t="n">
-        <v>16.03</v>
+        <v>13.23</v>
       </c>
       <c r="D10" t="n">
-        <v>13.52</v>
+        <v>10.83</v>
       </c>
       <c r="E10" t="n">
-        <v>5.93</v>
+        <v>5.35</v>
       </c>
       <c r="F10" t="n">
-        <v>5.11</v>
+        <v>4.11</v>
       </c>
       <c r="G10" t="n">
-        <v>7.5</v>
+        <v>6.12</v>
       </c>
       <c r="H10" t="n">
-        <v>13.28</v>
+        <v>12.63</v>
       </c>
       <c r="I10" t="n">
-        <v>5.03</v>
+        <v>2.94</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.61</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="11">
@@ -1034,31 +1305,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.98</v>
+        <v>2.8</v>
       </c>
       <c r="C11" t="n">
-        <v>13.92</v>
+        <v>11.39</v>
       </c>
       <c r="D11" t="n">
-        <v>10.92</v>
+        <v>9.27</v>
       </c>
       <c r="E11" t="n">
-        <v>3.93</v>
+        <v>3.96</v>
       </c>
       <c r="F11" t="n">
-        <v>2.56</v>
+        <v>2.59</v>
       </c>
       <c r="G11" t="n">
-        <v>7.4</v>
+        <v>6.42</v>
       </c>
       <c r="H11" t="n">
-        <v>11.28</v>
+        <v>10.85</v>
       </c>
       <c r="I11" t="n">
-        <v>3.64</v>
+        <v>3.23</v>
       </c>
       <c r="J11" t="n">
-        <v>2.61</v>
+        <v>1.88</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1096,10 +1367,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-1.97374729859742</v>
+        <v>2.055972320539883</v>
       </c>
       <c r="C2" t="n">
-        <v>2.407270292782356</v>
+        <v>3.6075687960628</v>
       </c>
     </row>
     <row r="3">
@@ -1107,10 +1378,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.2272033469211193</v>
+        <v>-6.340373368474013</v>
       </c>
       <c r="C3" t="n">
-        <v>-9.671657633832517</v>
+        <v>5.403964393442614</v>
       </c>
     </row>
     <row r="4">
@@ -1118,10 +1389,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-6.032778581916512</v>
+        <v>-2.558959597519974</v>
       </c>
       <c r="C4" t="n">
-        <v>-4.604671586442535</v>
+        <v>-2.631144250197949</v>
       </c>
     </row>
     <row r="5">
@@ -1129,10 +1400,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.125549243284644</v>
+        <v>2.280047396578068</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3946953781366241</v>
+        <v>6.07507143709493</v>
       </c>
     </row>
     <row r="6">
@@ -1140,10 +1411,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.6361577148137733</v>
+        <v>3.019092219359971</v>
       </c>
       <c r="C6" t="n">
-        <v>1.889458468372272</v>
+        <v>4.900326379070458</v>
       </c>
     </row>
     <row r="7">
@@ -1151,10 +1422,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>6.674340235775685</v>
+        <v>6.686615001756042</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3870898555595703</v>
+        <v>9.148353330509247</v>
       </c>
     </row>
     <row r="8">
@@ -1162,10 +1433,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.21517361844117</v>
+        <v>-5.339917002438872</v>
       </c>
       <c r="C8" t="n">
-        <v>-6.995327599053552</v>
+        <v>6.900901895693607</v>
       </c>
     </row>
     <row r="9">
@@ -1173,10 +1444,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-2.980467704015469</v>
+        <v>6.236449885837957</v>
       </c>
       <c r="C9" t="n">
-        <v>5.682497549919382</v>
+        <v>0.1173689308342064</v>
       </c>
     </row>
     <row r="10">
@@ -1184,10 +1455,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2.01784407379946</v>
+        <v>6.677111063119028</v>
       </c>
       <c r="C10" t="n">
-        <v>6.261854850680068</v>
+        <v>3.025075428325412</v>
       </c>
     </row>
     <row r="11">
@@ -1195,10 +1466,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.3630407811210975</v>
+        <v>4.792322405467918</v>
       </c>
       <c r="C11" t="n">
-        <v>4.248790423878334</v>
+        <v>3.009518913197908</v>
       </c>
     </row>
   </sheetData>
@@ -1260,31 +1531,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>11.34</v>
+        <v>5.92</v>
       </c>
       <c r="D2" t="n">
-        <v>10.19</v>
+        <v>5.02</v>
       </c>
       <c r="E2" t="n">
-        <v>4.2</v>
+        <v>0.29</v>
       </c>
       <c r="F2" t="n">
-        <v>1.91</v>
+        <v>1.17</v>
       </c>
       <c r="G2" t="n">
-        <v>8.539999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="H2" t="n">
-        <v>12.1</v>
+        <v>3.1</v>
       </c>
       <c r="I2" t="n">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="J2" t="n">
-        <v>1.91</v>
+        <v>5.09</v>
       </c>
       <c r="K2" t="n">
-        <v>2.04</v>
+        <v>2.27</v>
       </c>
     </row>
     <row r="3">
@@ -1292,34 +1563,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.34</v>
+        <v>5.92</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.75</v>
+        <v>0.9</v>
       </c>
       <c r="E3" t="n">
-        <v>11.59</v>
+        <v>6.2</v>
       </c>
       <c r="F3" t="n">
-        <v>12.99</v>
+        <v>7.09</v>
       </c>
       <c r="G3" t="n">
-        <v>11.97</v>
+        <v>7.38</v>
       </c>
       <c r="H3" t="n">
-        <v>2.29</v>
+        <v>2.82</v>
       </c>
       <c r="I3" t="n">
-        <v>11.85</v>
+        <v>7.25</v>
       </c>
       <c r="J3" t="n">
-        <v>9.43</v>
+        <v>11.01</v>
       </c>
       <c r="K3" t="n">
-        <v>12.36</v>
+        <v>8.18</v>
       </c>
     </row>
     <row r="4">
@@ -1327,34 +1598,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10.19</v>
+        <v>5.02</v>
       </c>
       <c r="C4" t="n">
-        <v>6.75</v>
+        <v>0.9</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>12.74</v>
+        <v>5.3</v>
       </c>
       <c r="F4" t="n">
-        <v>11.08</v>
+        <v>6.19</v>
       </c>
       <c r="G4" t="n">
-        <v>15.16</v>
+        <v>6.48</v>
       </c>
       <c r="H4" t="n">
-        <v>9.039999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="I4" t="n">
-        <v>9.550000000000001</v>
+        <v>6.34</v>
       </c>
       <c r="J4" t="n">
-        <v>8.539999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="K4" t="n">
-        <v>11.85</v>
+        <v>7.28</v>
       </c>
     </row>
     <row r="5">
@@ -1362,34 +1633,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.2</v>
+        <v>0.29</v>
       </c>
       <c r="C5" t="n">
-        <v>11.59</v>
+        <v>6.2</v>
       </c>
       <c r="D5" t="n">
-        <v>12.74</v>
+        <v>5.3</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>5.61</v>
+        <v>0.89</v>
       </c>
       <c r="G5" t="n">
-        <v>4.46</v>
+        <v>1.18</v>
       </c>
       <c r="H5" t="n">
-        <v>11.47</v>
+        <v>3.38</v>
       </c>
       <c r="I5" t="n">
-        <v>5.86</v>
+        <v>1.04</v>
       </c>
       <c r="J5" t="n">
-        <v>4.59</v>
+        <v>4.81</v>
       </c>
       <c r="K5" t="n">
-        <v>2.68</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="6">
@@ -1397,34 +1668,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.91</v>
+        <v>1.17</v>
       </c>
       <c r="C6" t="n">
-        <v>12.99</v>
+        <v>7.09</v>
       </c>
       <c r="D6" t="n">
-        <v>11.08</v>
+        <v>6.19</v>
       </c>
       <c r="E6" t="n">
-        <v>5.61</v>
+        <v>0.89</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>10.06</v>
+        <v>0.29</v>
       </c>
       <c r="H6" t="n">
-        <v>13.89</v>
+        <v>4.27</v>
       </c>
       <c r="I6" t="n">
-        <v>1.4</v>
+        <v>0.16</v>
       </c>
       <c r="J6" t="n">
-        <v>3.57</v>
+        <v>3.92</v>
       </c>
       <c r="K6" t="n">
-        <v>2.93</v>
+        <v>1.09</v>
       </c>
     </row>
     <row r="7">
@@ -1432,34 +1703,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>8.539999999999999</v>
+        <v>1.46</v>
       </c>
       <c r="C7" t="n">
-        <v>11.97</v>
+        <v>7.38</v>
       </c>
       <c r="D7" t="n">
-        <v>15.16</v>
+        <v>6.48</v>
       </c>
       <c r="E7" t="n">
-        <v>4.46</v>
+        <v>1.18</v>
       </c>
       <c r="F7" t="n">
-        <v>10.06</v>
+        <v>0.29</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>10.96</v>
+        <v>4.56</v>
       </c>
       <c r="I7" t="n">
-        <v>10.19</v>
+        <v>0.13</v>
       </c>
       <c r="J7" t="n">
-        <v>8.279999999999999</v>
+        <v>3.63</v>
       </c>
       <c r="K7" t="n">
-        <v>7.13</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="8">
@@ -1467,34 +1738,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.1</v>
+        <v>3.1</v>
       </c>
       <c r="C8" t="n">
-        <v>2.29</v>
+        <v>2.82</v>
       </c>
       <c r="D8" t="n">
-        <v>9.039999999999999</v>
+        <v>1.92</v>
       </c>
       <c r="E8" t="n">
-        <v>11.47</v>
+        <v>3.38</v>
       </c>
       <c r="F8" t="n">
-        <v>13.89</v>
+        <v>4.27</v>
       </c>
       <c r="G8" t="n">
-        <v>10.96</v>
+        <v>4.56</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>12.74</v>
+        <v>4.43</v>
       </c>
       <c r="J8" t="n">
-        <v>10.19</v>
+        <v>8.19</v>
       </c>
       <c r="K8" t="n">
-        <v>12.61</v>
+        <v>5.36</v>
       </c>
     </row>
     <row r="9">
@@ -1502,34 +1773,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.66</v>
+        <v>1.33</v>
       </c>
       <c r="C9" t="n">
-        <v>11.85</v>
+        <v>7.25</v>
       </c>
       <c r="D9" t="n">
-        <v>9.550000000000001</v>
+        <v>6.34</v>
       </c>
       <c r="E9" t="n">
-        <v>5.86</v>
+        <v>1.04</v>
       </c>
       <c r="F9" t="n">
-        <v>1.4</v>
+        <v>0.16</v>
       </c>
       <c r="G9" t="n">
-        <v>10.19</v>
+        <v>0.13</v>
       </c>
       <c r="H9" t="n">
-        <v>12.74</v>
+        <v>4.43</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>2.68</v>
+        <v>3.77</v>
       </c>
       <c r="K9" t="n">
-        <v>3.44</v>
+        <v>0.9399999999999999</v>
       </c>
     </row>
     <row r="10">
@@ -1537,34 +1808,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.91</v>
+        <v>5.09</v>
       </c>
       <c r="C10" t="n">
-        <v>9.43</v>
+        <v>11.01</v>
       </c>
       <c r="D10" t="n">
-        <v>8.539999999999999</v>
+        <v>10.11</v>
       </c>
       <c r="E10" t="n">
-        <v>4.59</v>
+        <v>4.81</v>
       </c>
       <c r="F10" t="n">
-        <v>3.57</v>
+        <v>3.92</v>
       </c>
       <c r="G10" t="n">
-        <v>8.279999999999999</v>
+        <v>3.63</v>
       </c>
       <c r="H10" t="n">
-        <v>10.19</v>
+        <v>8.19</v>
       </c>
       <c r="I10" t="n">
-        <v>2.68</v>
+        <v>3.77</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>3.31</v>
+        <v>2.83</v>
       </c>
     </row>
     <row r="11">
@@ -1572,31 +1843,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.04</v>
+        <v>2.27</v>
       </c>
       <c r="C11" t="n">
-        <v>12.36</v>
+        <v>8.18</v>
       </c>
       <c r="D11" t="n">
-        <v>11.85</v>
+        <v>7.28</v>
       </c>
       <c r="E11" t="n">
-        <v>2.68</v>
+        <v>1.98</v>
       </c>
       <c r="F11" t="n">
-        <v>2.93</v>
+        <v>1.09</v>
       </c>
       <c r="G11" t="n">
-        <v>7.13</v>
+        <v>0.8</v>
       </c>
       <c r="H11" t="n">
-        <v>12.61</v>
+        <v>5.36</v>
       </c>
       <c r="I11" t="n">
-        <v>3.44</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="J11" t="n">
-        <v>3.31</v>
+        <v>2.83</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1634,10 +1905,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-0.2760913746146485</v>
+        <v>-0.6018055270219509</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.009090524268618148</v>
+        <v>-0.6018055270194673</v>
       </c>
     </row>
     <row r="3">
@@ -1645,10 +1916,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.6003113009677291</v>
+        <v>-4.786386545547126</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1719503088148709</v>
+        <v>-4.786386545545453</v>
       </c>
     </row>
     <row r="4">
@@ -1656,10 +1927,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.271925003505889</v>
+        <v>-4.148988122273153</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.586809878169255</v>
+        <v>-4.148988122272174</v>
       </c>
     </row>
     <row r="5">
@@ -1667,10 +1938,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.1757281721154868</v>
+        <v>-0.3995209347368294</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3064180345177035</v>
+        <v>-0.3995209347424333</v>
       </c>
     </row>
     <row r="6">
@@ -1678,10 +1949,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.414477283911855</v>
+        <v>0.2266500590003545</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.06020065825966771</v>
+        <v>0.2266500589972709</v>
       </c>
     </row>
     <row r="7">
@@ -1689,10 +1960,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.03951017006429247</v>
+        <v>0.4322055525469537</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5814484772975564</v>
+        <v>0.4322055525506159</v>
       </c>
     </row>
     <row r="8">
@@ -1700,10 +1971,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6695207664954115</v>
+        <v>-2.792788374589773</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.004240066631660699</v>
+        <v>-2.792788374584572</v>
       </c>
     </row>
     <row r="9">
@@ -1711,10 +1982,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.3267652594163915</v>
+        <v>0.3368346498376146</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1283169660093166</v>
+        <v>0.3368346498487759</v>
       </c>
     </row>
     <row r="10">
@@ -1722,10 +1993,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.1303580847377507</v>
+        <v>3.000737523900466</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.04926777279719059</v>
+        <v>3.000737523922749</v>
       </c>
     </row>
     <row r="11">
@@ -1733,10 +2004,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.3136857790566678</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1419939441110261</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1798,31 +2069,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>8.9</v>
+        <v>12.28</v>
       </c>
       <c r="D2" t="n">
-        <v>6.29</v>
+        <v>8.1</v>
       </c>
       <c r="E2" t="n">
-        <v>1.37</v>
+        <v>3.7</v>
       </c>
       <c r="F2" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="G2" t="n">
-        <v>7.86</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="H2" t="n">
-        <v>7.94</v>
+        <v>9.93</v>
       </c>
       <c r="I2" t="n">
-        <v>5.68</v>
+        <v>3.43</v>
       </c>
       <c r="J2" t="n">
-        <v>4.87</v>
+        <v>5.55</v>
       </c>
       <c r="K2" t="n">
-        <v>3.19</v>
+        <v>2.98</v>
       </c>
     </row>
     <row r="3">
@@ -1830,34 +2101,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>8.9</v>
+        <v>12.28</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.25</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>9.6</v>
+        <v>10.11</v>
       </c>
       <c r="F3" t="n">
-        <v>10.26</v>
+        <v>11.59</v>
       </c>
       <c r="G3" t="n">
-        <v>16.44</v>
+        <v>11.95</v>
       </c>
       <c r="H3" t="n">
-        <v>1.73</v>
+        <v>2.85</v>
       </c>
       <c r="I3" t="n">
-        <v>14.31</v>
+        <v>15.69</v>
       </c>
       <c r="J3" t="n">
-        <v>13.67</v>
+        <v>16.03</v>
       </c>
       <c r="K3" t="n">
-        <v>12.02</v>
+        <v>13.92</v>
       </c>
     </row>
     <row r="4">
@@ -1865,34 +2136,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>6.29</v>
+        <v>8.1</v>
       </c>
       <c r="C4" t="n">
-        <v>5.25</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>7.53</v>
+        <v>8.73</v>
       </c>
       <c r="F4" t="n">
-        <v>7.36</v>
+        <v>8.44</v>
       </c>
       <c r="G4" t="n">
-        <v>14.06</v>
+        <v>13.65</v>
       </c>
       <c r="H4" t="n">
-        <v>5.68</v>
+        <v>7.63</v>
       </c>
       <c r="I4" t="n">
-        <v>10.48</v>
+        <v>10.73</v>
       </c>
       <c r="J4" t="n">
-        <v>10.97</v>
+        <v>13.52</v>
       </c>
       <c r="K4" t="n">
-        <v>9.33</v>
+        <v>10.92</v>
       </c>
     </row>
     <row r="5">
@@ -1900,34 +2171,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.37</v>
+        <v>3.7</v>
       </c>
       <c r="C5" t="n">
-        <v>9.6</v>
+        <v>10.11</v>
       </c>
       <c r="D5" t="n">
-        <v>7.53</v>
+        <v>8.73</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>1.56</v>
+        <v>2.31</v>
       </c>
       <c r="G5" t="n">
-        <v>6.88</v>
+        <v>5.55</v>
       </c>
       <c r="H5" t="n">
-        <v>8.44</v>
+        <v>7.39</v>
       </c>
       <c r="I5" t="n">
-        <v>5.74</v>
+        <v>6.69</v>
       </c>
       <c r="J5" t="n">
-        <v>4.1</v>
+        <v>5.93</v>
       </c>
       <c r="K5" t="n">
-        <v>2.51</v>
+        <v>3.93</v>
       </c>
     </row>
     <row r="6">
@@ -1935,34 +2206,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.37</v>
+        <v>1.43</v>
       </c>
       <c r="C6" t="n">
-        <v>10.26</v>
+        <v>11.59</v>
       </c>
       <c r="D6" t="n">
-        <v>7.36</v>
+        <v>8.44</v>
       </c>
       <c r="E6" t="n">
-        <v>1.56</v>
+        <v>2.31</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>6.7</v>
+        <v>7.46</v>
       </c>
       <c r="H6" t="n">
-        <v>9.300000000000001</v>
+        <v>9.08</v>
       </c>
       <c r="I6" t="n">
-        <v>4.39</v>
+        <v>4.46</v>
       </c>
       <c r="J6" t="n">
-        <v>3.62</v>
+        <v>5.11</v>
       </c>
       <c r="K6" t="n">
-        <v>1.97</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="7">
@@ -1970,34 +2241,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>7.86</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="C7" t="n">
-        <v>16.44</v>
+        <v>11.95</v>
       </c>
       <c r="D7" t="n">
-        <v>14.06</v>
+        <v>13.65</v>
       </c>
       <c r="E7" t="n">
-        <v>6.88</v>
+        <v>5.55</v>
       </c>
       <c r="F7" t="n">
-        <v>6.7</v>
+        <v>7.46</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>15.17</v>
+        <v>9.18</v>
       </c>
       <c r="I7" t="n">
-        <v>5.57</v>
+        <v>11.01</v>
       </c>
       <c r="J7" t="n">
-        <v>3.14</v>
+        <v>7.5</v>
       </c>
       <c r="K7" t="n">
-        <v>4.73</v>
+        <v>7.4</v>
       </c>
     </row>
     <row r="8">
@@ -2005,34 +2276,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7.94</v>
+        <v>9.93</v>
       </c>
       <c r="C8" t="n">
-        <v>1.73</v>
+        <v>2.85</v>
       </c>
       <c r="D8" t="n">
-        <v>5.68</v>
+        <v>7.63</v>
       </c>
       <c r="E8" t="n">
-        <v>8.44</v>
+        <v>7.39</v>
       </c>
       <c r="F8" t="n">
-        <v>9.300000000000001</v>
+        <v>9.08</v>
       </c>
       <c r="G8" t="n">
-        <v>15.17</v>
+        <v>9.18</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>13.54</v>
+        <v>13.35</v>
       </c>
       <c r="J8" t="n">
-        <v>12.55</v>
+        <v>13.28</v>
       </c>
       <c r="K8" t="n">
-        <v>10.93</v>
+        <v>11.28</v>
       </c>
     </row>
     <row r="9">
@@ -2040,34 +2311,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.68</v>
+        <v>3.43</v>
       </c>
       <c r="C9" t="n">
-        <v>14.31</v>
+        <v>15.69</v>
       </c>
       <c r="D9" t="n">
-        <v>10.48</v>
+        <v>10.73</v>
       </c>
       <c r="E9" t="n">
-        <v>5.74</v>
+        <v>6.69</v>
       </c>
       <c r="F9" t="n">
-        <v>4.39</v>
+        <v>4.46</v>
       </c>
       <c r="G9" t="n">
-        <v>5.57</v>
+        <v>11.01</v>
       </c>
       <c r="H9" t="n">
-        <v>13.54</v>
+        <v>13.35</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.39</v>
+        <v>5.03</v>
       </c>
       <c r="K9" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
     </row>
     <row r="10">
@@ -2075,34 +2346,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.87</v>
+        <v>5.55</v>
       </c>
       <c r="C10" t="n">
-        <v>13.67</v>
+        <v>16.03</v>
       </c>
       <c r="D10" t="n">
-        <v>10.97</v>
+        <v>13.52</v>
       </c>
       <c r="E10" t="n">
-        <v>4.1</v>
+        <v>5.93</v>
       </c>
       <c r="F10" t="n">
-        <v>3.62</v>
+        <v>5.11</v>
       </c>
       <c r="G10" t="n">
-        <v>3.14</v>
+        <v>7.5</v>
       </c>
       <c r="H10" t="n">
-        <v>12.55</v>
+        <v>13.28</v>
       </c>
       <c r="I10" t="n">
-        <v>3.39</v>
+        <v>5.03</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.68</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="11">
@@ -2110,31 +2381,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.19</v>
+        <v>2.98</v>
       </c>
       <c r="C11" t="n">
-        <v>12.02</v>
+        <v>13.92</v>
       </c>
       <c r="D11" t="n">
-        <v>9.33</v>
+        <v>10.92</v>
       </c>
       <c r="E11" t="n">
-        <v>2.51</v>
+        <v>3.93</v>
       </c>
       <c r="F11" t="n">
-        <v>1.97</v>
+        <v>2.56</v>
       </c>
       <c r="G11" t="n">
-        <v>4.73</v>
+        <v>7.4</v>
       </c>
       <c r="H11" t="n">
-        <v>10.93</v>
+        <v>11.28</v>
       </c>
       <c r="I11" t="n">
-        <v>3.66</v>
+        <v>3.64</v>
       </c>
       <c r="J11" t="n">
-        <v>1.68</v>
+        <v>2.61</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -2172,10 +2443,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>-3.98464265725605</v>
+        <v>-1.126777792643736</v>
       </c>
       <c r="C2" t="n">
-        <v>-4.965575924314302</v>
+        <v>2.901918915921103</v>
       </c>
     </row>
     <row r="3">
@@ -2183,10 +2454,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>-10.87285917466243</v>
+        <v>8.311920372587304</v>
       </c>
       <c r="C3" t="n">
-        <v>-10.60077578009114</v>
+        <v>-4.950207633405815</v>
       </c>
     </row>
     <row r="4">
@@ -2194,10 +2465,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>-5.645488029306109</v>
+        <v>6.974761991982598</v>
       </c>
       <c r="C4" t="n">
-        <v>-11.03621860207356</v>
+        <v>2.991675809064032</v>
       </c>
     </row>
     <row r="5">
@@ -2205,10 +2476,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>-4.274113386291662</v>
+        <v>-0.896805475017335</v>
       </c>
       <c r="C5" t="n">
-        <v>-3.629874569833206</v>
+        <v>-0.7863369337544182</v>
       </c>
     </row>
     <row r="6">
@@ -2216,10 +2487,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>-2.832320902826699</v>
+        <v>-1.33303144677521</v>
       </c>
       <c r="C6" t="n">
-        <v>-4.232680090004991</v>
+        <v>1.482510029140545</v>
       </c>
     </row>
     <row r="7">
@@ -2227,10 +2498,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.2671935680970307</v>
+        <v>-3.616669573708716</v>
       </c>
       <c r="C7" t="n">
-        <v>1.959776134969871</v>
+        <v>-5.622832390045144</v>
       </c>
     </row>
     <row r="8">
@@ -2238,10 +2509,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>-10.8978741413546</v>
+        <v>5.495498538758917</v>
       </c>
       <c r="C8" t="n">
-        <v>-8.867654824176483</v>
+        <v>-4.49563624057946</v>
       </c>
     </row>
     <row r="9">
@@ -2249,10 +2520,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.46157857639975</v>
+        <v>-3.484726534888986</v>
       </c>
       <c r="C9" t="n">
-        <v>-3.337468789413095</v>
+        <v>5.38801557756171</v>
       </c>
     </row>
     <row r="10">
@@ -2260,10 +2531,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>-1.06484505071352</v>
+        <v>-6.445284207397673</v>
       </c>
       <c r="C10" t="n">
-        <v>-1.073622079490113</v>
+        <v>1.319389016162241</v>
       </c>
     </row>
     <row r="11">
@@ -2271,10 +2542,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>-2.077694412014798</v>
+        <v>-3.878885872897166</v>
       </c>
       <c r="C11" t="n">
-        <v>-2.413697691576759</v>
+        <v>1.771503849935205</v>
       </c>
     </row>
   </sheetData>
@@ -2288,7 +2559,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2297,40 +2568,35 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
@@ -2338,25 +2604,349 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.0001809597015380859</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0001418590545654297</v>
+        <v>11.27</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3630716800689697</v>
+        <v>10</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8346879482269287</v>
+        <v>4.68</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08471822738647461</v>
+        <v>1.9</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1291253566741943</v>
+        <v>8.859999999999999</v>
       </c>
       <c r="H2" t="n">
-        <v>1.138072967529297</v>
+        <v>11.77</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="F3" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="I3" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="J3" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10</v>
+      </c>
+      <c r="C4" t="n">
+        <v>6.46</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4.68</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.91</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="H5" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="I5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="J5" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.16</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>13.16</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4.94</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="H6" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.53</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>8.859999999999999</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.56</v>
+      </c>
+      <c r="F7" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="J7" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.34</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="D8" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="E8" t="n">
+        <v>11.65</v>
+      </c>
+      <c r="F8" t="n">
+        <v>13.67</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10.76</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="K8" t="n">
+        <v>11.27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C9" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13.04</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="C10" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="D10" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="G10" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="H10" t="n">
+        <v>10.13</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>3.29</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="H11" t="n">
+        <v>11.27</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="J11" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2370,7 +2960,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I8"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2379,262 +2969,522 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>estimation_technique</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>max_error</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>max_percent_error</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>avg_error</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>avg_percent_error</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>true_pos_rate</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>false_pos_rate</t>
-        </is>
-      </c>
-      <c r="I1" s="2" t="inlineStr">
-        <is>
-          <t>runtime</t>
-        </is>
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>rss_only</t>
-        </is>
+      <c r="B2" t="n">
+        <v>-0.2540790837793758</v>
       </c>
       <c r="C2" t="n">
-        <v>7.949999999999999</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.410557184750733</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.036222222222223</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.3110682107531805</v>
-      </c>
-      <c r="G2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="I2" t="n">
-        <v>0.0001809597015380859</v>
+        <v>0.117717305013092</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rss_post_averaged</t>
-        </is>
+      <c r="B3" t="n">
+        <v>0.6170019107260326</v>
       </c>
       <c r="C3" t="n">
-        <v>5.305</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.6647869674185463</v>
-      </c>
-      <c r="E3" t="n">
-        <v>1.569777777777778</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0.219257089482622</v>
-      </c>
-      <c r="G3" t="n">
-        <v>1</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.04761904761904762</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.0001418590545654297</v>
+        <v>-0.05350836147233314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>spring_model</t>
-        </is>
+      <c r="B4" t="n">
+        <v>0.4655877565762817</v>
       </c>
       <c r="C4" t="n">
-        <v>6.609999999999999</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.6224489795918368</v>
-      </c>
-      <c r="E4" t="n">
-        <v>1.177111111111111</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0.1662050471852482</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.02380952380952381</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.3630716800689697</v>
+        <v>0.4342939599654195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>sdp</t>
-        </is>
+      <c r="B5" t="n">
+        <v>-0.2942270637899342</v>
       </c>
       <c r="C5" t="n">
-        <v>10.66</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.9879518072289156</v>
-      </c>
-      <c r="E5" t="n">
-        <v>3.788888888888889</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0.496855608342256</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.8346879482269287</v>
+        <v>-0.2513256027998568</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>mds_metric</t>
-        </is>
+      <c r="B6" t="n">
+        <v>-0.4042327392264397</v>
       </c>
       <c r="C6" t="n">
-        <v>1.81</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.9090909090909092</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.7188888888888889</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.1394944340912941</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>0.08471822738647461</v>
+        <v>0.1230753560689994</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>mds_non_metric</t>
-        </is>
+      <c r="B7" t="n">
+        <v>-0.145613165659685</v>
       </c>
       <c r="C7" t="n">
-        <v>5.84</v>
-      </c>
-      <c r="D7" t="n">
-        <v>3.636363636363637</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1.632</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0.3073233058097867</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0.07142857142857142</v>
-      </c>
-      <c r="I7" t="n">
-        <v>0.1291253566741943</v>
+        <v>-0.5787744166509391</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>sdp_init_spring</t>
-        </is>
+      <c r="B8" t="n">
+        <v>0.621654310730573</v>
       </c>
       <c r="C8" t="n">
-        <v>6.35</v>
+        <v>-0.2093485025304539</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.3027664541312314</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.2421154337931534</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-0.0794701732267067</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1859398887178936</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-0.2472624579277679</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.008295354287311485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="I2" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>8.84</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="F3" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="G3" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="H3" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="I3" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="J3" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7.82</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.77</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="G4" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8.68</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="J4" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.539999999999999</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9.029999999999999</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.859999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="H5" t="n">
+        <v>7.88</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="J5" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.96</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="C6" t="n">
+        <v>9.68</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.41</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.720000000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>14.13</v>
+      </c>
+      <c r="D7" t="n">
+        <v>14.95</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.4</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5.55</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>12.76</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6.24</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>8.130000000000001</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.74</v>
       </c>
       <c r="D8" t="n">
-        <v>0.719954648526077</v>
+        <v>8.68</v>
       </c>
       <c r="E8" t="n">
-        <v>1.358666666666667</v>
+        <v>7.88</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2058884420050273</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G8" t="n">
-        <v>1</v>
+        <v>12.76</v>
       </c>
       <c r="H8" t="n">
-        <v>0.07142857142857142</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>1.138072967529297</v>
+        <v>13.24</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="K8" t="n">
+        <v>10.9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="C9" t="n">
+        <v>13.65</v>
+      </c>
+      <c r="D9" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7.12</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="G9" t="n">
+        <v>8.880000000000001</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13.24</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="C10" t="n">
+        <v>13.51</v>
+      </c>
+      <c r="D10" t="n">
+        <v>11.13</v>
+      </c>
+      <c r="E10" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="I10" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.89</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="C11" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="D11" t="n">
+        <v>9.539999999999999</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G11" t="n">
+        <v>6.24</v>
+      </c>
+      <c r="H11" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3040,6 +3890,1325 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-5.756820131434893</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-8.048554454390702</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-11.63109094715964</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-14.65469153105201</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-3.926128155434473</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-15.64624803275016</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-7.696294167700218</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-6.532588348628586</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-6.336347822563287</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-6.550777499258545</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-7.522571088172383</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-1.132500406665075</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-12.19344493342482</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-13.00848629900336</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-0.5745714257669163</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-6.655414733069764</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-2.617129210469083</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-4.594930017203719</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-3.755977231651297</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-6.103088606039345</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="D2" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="G2" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H2" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="J2" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K2" t="n">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>10.69</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="E3" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="F3" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="I3" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="J3" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="K3" t="n">
+        <v>12.15</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="C4" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="G4" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="H4" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="J4" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="K4" t="n">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11.88</v>
+      </c>
+      <c r="D5" t="n">
+        <v>15.32</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="G5" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="I5" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="J5" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="K5" t="n">
+        <v>7.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="C6" t="n">
+        <v>11.22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="H6" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.98</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="C7" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="D7" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>5.68</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="I7" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="K7" t="n">
+        <v>4.75</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="F8" t="n">
+        <v>8.19</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="J8" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="K8" t="n">
+        <v>9.369999999999999</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8.32</v>
+      </c>
+      <c r="C9" t="n">
+        <v>14.39</v>
+      </c>
+      <c r="D9" t="n">
+        <v>7.79</v>
+      </c>
+      <c r="E9" t="n">
+        <v>15.05</v>
+      </c>
+      <c r="F9" t="n">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="H9" t="n">
+        <v>13.33</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="K9" t="n">
+        <v>7.92</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="C10" t="n">
+        <v>12.28</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10.17</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8.58</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5.41</v>
+      </c>
+      <c r="H10" t="n">
+        <v>9.77</v>
+      </c>
+      <c r="I10" t="n">
+        <v>6.73</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="C11" t="n">
+        <v>12.15</v>
+      </c>
+      <c r="D11" t="n">
+        <v>10.83</v>
+      </c>
+      <c r="E11" t="n">
+        <v>7.39</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="G11" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="H11" t="n">
+        <v>9.369999999999999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>7.92</v>
+      </c>
+      <c r="J11" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.1819059841748906</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-0.06842313943639383</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-0.6264418180673315</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.006248868171729427</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-0.2785067022849833</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.5445717539370223</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0.07419690364489087</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-0.5610254046750637</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.2078049960286381</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-0.1738397998350298</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>-0.05237219262091661</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-0.1484321583054261</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.4134691146043267</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-0.1524518006173043</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0.3149301699139484</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.5520460114661669</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0.3044246418473032</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.04379064555694658</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0.2875271319680237</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-0.04248497626255814</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="K1" s="2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="H2" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="J2" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="K2" t="n">
+        <v>2.62</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>14.63</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="E3" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="F3" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="G3" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="H3" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="J3" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="K3" t="n">
+        <v>16.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>9.15</v>
+      </c>
+      <c r="C4" t="n">
+        <v>7.54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="G4" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="J4" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="K4" t="n">
+        <v>11.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="C5" t="n">
+        <v>12.95</v>
+      </c>
+      <c r="D5" t="n">
+        <v>9.279999999999999</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>3</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="H5" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="J5" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="K5" t="n">
+        <v>3.45</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C6" t="n">
+        <v>14.94</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.83</v>
+      </c>
+      <c r="E6" t="n">
+        <v>3</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="I6" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="J6" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>7.75</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.12</v>
+      </c>
+      <c r="D7" t="n">
+        <v>10.28</v>
+      </c>
+      <c r="E7" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="F7" t="n">
+        <v>7.29</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="J7" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="K7" t="n">
+        <v>7.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>10.78</v>
+      </c>
+      <c r="C8" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.58</v>
+      </c>
+      <c r="E8" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="F8" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7.37</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="J8" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="K8" t="n">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="C9" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="D9" t="n">
+        <v>10.62</v>
+      </c>
+      <c r="E9" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.66</v>
+      </c>
+      <c r="H9" t="n">
+        <v>12.75</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="K9" t="n">
+        <v>3.08</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="C10" t="n">
+        <v>16.57</v>
+      </c>
+      <c r="D10" t="n">
+        <v>12.7</v>
+      </c>
+      <c r="E10" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="F10" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="G10" t="n">
+        <v>6.68</v>
+      </c>
+      <c r="H10" t="n">
+        <v>12.54</v>
+      </c>
+      <c r="I10" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="C11" t="n">
+        <v>16.16</v>
+      </c>
+      <c r="D11" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="E11" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.44</v>
+      </c>
+      <c r="H11" t="n">
+        <v>12.17</v>
+      </c>
+      <c r="I11" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="J11" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>-7.108081434216944</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-3.772496269910219</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>23.59701441367877</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.066388835480898</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11.50420080163057</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-9.435969438999944</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>-3.856706951713361</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.929507895925943</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>-7.99915350207314</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-1.912029813718194</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1.754207076397898</v>
+      </c>
+      <c r="C7" t="n">
+        <v>10.11860050766968</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>15.07905119209316</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1.877647997793679</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>-10.80488108266429</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-6.113747780191255</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>-11.41378997826869</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4.805895992749618</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>-10.75186053486397</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.4362020731997941</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>rss_pre_averaged</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>spring_model_5inits</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="J1" s="2" t="inlineStr">
+        <is>
+          <t>lle</t>
+        </is>
+      </c>
+      <c r="K1" s="2" t="inlineStr">
+        <is>
+          <t>isomap</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.0002357959747314453</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.0002350807189941406</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.0002348423004150391</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5.400811433792114</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.8666527271270752</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.1894185543060303</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.2302963733673096</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.9966423511505127</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.009820699691772461</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.007828712463378906</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
 
@@ -5344,31 +7513,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>9.539999999999999</v>
+        <v>9.02</v>
       </c>
       <c r="D2" t="n">
-        <v>7.89</v>
+        <v>8.18</v>
       </c>
       <c r="E2" t="n">
-        <v>1.94</v>
+        <v>2.19</v>
       </c>
       <c r="F2" t="n">
-        <v>1.37</v>
+        <v>2.16</v>
       </c>
       <c r="G2" t="n">
-        <v>15.93</v>
+        <v>6.64</v>
       </c>
       <c r="H2" t="n">
-        <v>6.15</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="I2" t="n">
-        <v>4.27</v>
+        <v>5.63</v>
       </c>
       <c r="J2" t="n">
-        <v>4.74</v>
+        <v>4.36</v>
       </c>
       <c r="K2" t="n">
-        <v>3.6</v>
+        <v>2.58</v>
       </c>
     </row>
     <row r="3">
@@ -5376,34 +7545,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>11.43</v>
+        <v>9.02</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.28</v>
+        <v>7.2</v>
       </c>
       <c r="E3" t="n">
-        <v>9.02</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>17.31</v>
+        <v>10.34</v>
       </c>
       <c r="G3" t="n">
-        <v>10.14</v>
+        <v>14.87</v>
       </c>
       <c r="H3" t="n">
-        <v>2.24</v>
+        <v>1.87</v>
       </c>
       <c r="I3" t="n">
-        <v>14.52</v>
+        <v>14.64</v>
       </c>
       <c r="J3" t="n">
-        <v>19.69</v>
+        <v>12.94</v>
       </c>
       <c r="K3" t="n">
-        <v>11.35</v>
+        <v>11.49</v>
       </c>
     </row>
     <row r="4">
@@ -5411,34 +7580,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>11.64</v>
+        <v>8.18</v>
       </c>
       <c r="C4" t="n">
-        <v>7.37</v>
+        <v>7.2</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>13.47</v>
+        <v>6.76</v>
       </c>
       <c r="F4" t="n">
-        <v>9.5</v>
+        <v>7.84</v>
       </c>
       <c r="G4" t="n">
-        <v>10.93</v>
+        <v>10.87</v>
       </c>
       <c r="H4" t="n">
-        <v>8.210000000000001</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="I4" t="n">
-        <v>6.65</v>
+        <v>12.68</v>
       </c>
       <c r="J4" t="n">
-        <v>19.56</v>
+        <v>12.4</v>
       </c>
       <c r="K4" t="n">
-        <v>11.57</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="5">
@@ -5446,34 +7615,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.75</v>
+        <v>2.19</v>
       </c>
       <c r="C5" t="n">
-        <v>6.32</v>
+        <v>9.369999999999999</v>
       </c>
       <c r="D5" t="n">
-        <v>8.300000000000001</v>
+        <v>6.76</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.92</v>
+        <v>1.13</v>
       </c>
       <c r="G5" t="n">
-        <v>3.22</v>
+        <v>5.51</v>
       </c>
       <c r="H5" t="n">
-        <v>6.66</v>
+        <v>8.81</v>
       </c>
       <c r="I5" t="n">
-        <v>7.4</v>
+        <v>6.01</v>
       </c>
       <c r="J5" t="n">
-        <v>9.039999999999999</v>
+        <v>5.74</v>
       </c>
       <c r="K5" t="n">
-        <v>8.220000000000001</v>
+        <v>3.83</v>
       </c>
     </row>
     <row r="6">
@@ -5481,34 +7650,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="C6" t="n">
-        <v>11.42</v>
+        <v>10.34</v>
       </c>
       <c r="D6" t="n">
-        <v>6.47</v>
+        <v>7.84</v>
       </c>
       <c r="E6" t="n">
-        <v>1.06</v>
+        <v>1.13</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>4.91</v>
+        <v>4.68</v>
       </c>
       <c r="H6" t="n">
-        <v>7.65</v>
+        <v>9.66</v>
       </c>
       <c r="I6" t="n">
-        <v>3.3</v>
+        <v>4.89</v>
       </c>
       <c r="J6" t="n">
-        <v>7.94</v>
+        <v>4.82</v>
       </c>
       <c r="K6" t="n">
-        <v>4.09</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="7">
@@ -5516,34 +7685,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10.64</v>
+        <v>6.64</v>
       </c>
       <c r="C7" t="n">
-        <v>12.67</v>
+        <v>14.87</v>
       </c>
       <c r="D7" t="n">
-        <v>12.33</v>
+        <v>10.87</v>
       </c>
       <c r="E7" t="n">
-        <v>3.43</v>
+        <v>5.51</v>
       </c>
       <c r="F7" t="n">
-        <v>11.79</v>
+        <v>4.68</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>7.96</v>
+        <v>14.31</v>
       </c>
       <c r="I7" t="n">
-        <v>13.38</v>
+        <v>4.18</v>
       </c>
       <c r="J7" t="n">
-        <v>6.27</v>
+        <v>6.45</v>
       </c>
       <c r="K7" t="n">
-        <v>5.43</v>
+        <v>5.62</v>
       </c>
     </row>
     <row r="8">
@@ -5551,34 +7720,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18.67</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>1.2</v>
+        <v>1.87</v>
       </c>
       <c r="D8" t="n">
-        <v>9.73</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="E8" t="n">
-        <v>8.16</v>
+        <v>8.81</v>
       </c>
       <c r="F8" t="n">
-        <v>10.05</v>
+        <v>9.66</v>
       </c>
       <c r="G8" t="n">
-        <v>14.87</v>
+        <v>14.31</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>11.59</v>
+        <v>13.59</v>
       </c>
       <c r="J8" t="n">
-        <v>12.05</v>
+        <v>11.66</v>
       </c>
       <c r="K8" t="n">
-        <v>7.56</v>
+        <v>10.37</v>
       </c>
     </row>
     <row r="9">
@@ -5586,34 +7755,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.85</v>
+        <v>5.63</v>
       </c>
       <c r="C9" t="n">
-        <v>24.06</v>
+        <v>14.64</v>
       </c>
       <c r="D9" t="n">
-        <v>7.5</v>
+        <v>12.68</v>
       </c>
       <c r="E9" t="n">
-        <v>3.43</v>
+        <v>6.01</v>
       </c>
       <c r="F9" t="n">
-        <v>5.66</v>
+        <v>4.89</v>
       </c>
       <c r="G9" t="n">
-        <v>10.1</v>
+        <v>4.18</v>
       </c>
       <c r="H9" t="n">
-        <v>16.44</v>
+        <v>13.59</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>5.81</v>
+        <v>2.82</v>
       </c>
       <c r="K9" t="n">
-        <v>2.82</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="10">
@@ -5621,34 +7790,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.4</v>
+        <v>4.36</v>
       </c>
       <c r="C10" t="n">
-        <v>13.33</v>
+        <v>12.94</v>
       </c>
       <c r="D10" t="n">
-        <v>13.73</v>
+        <v>12.4</v>
       </c>
       <c r="E10" t="n">
-        <v>4.99</v>
+        <v>5.74</v>
       </c>
       <c r="F10" t="n">
-        <v>3.95</v>
+        <v>4.82</v>
       </c>
       <c r="G10" t="n">
-        <v>6.77</v>
+        <v>6.45</v>
       </c>
       <c r="H10" t="n">
-        <v>12.53</v>
+        <v>11.66</v>
       </c>
       <c r="I10" t="n">
-        <v>2.87</v>
+        <v>2.82</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.77</v>
+        <v>1.92</v>
       </c>
     </row>
     <row r="11">
@@ -5656,31 +7825,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.91</v>
+        <v>2.58</v>
       </c>
       <c r="C11" t="n">
-        <v>21.16</v>
+        <v>11.49</v>
       </c>
       <c r="D11" t="n">
-        <v>8.869999999999999</v>
+        <v>10.49</v>
       </c>
       <c r="E11" t="n">
-        <v>2.85</v>
+        <v>3.83</v>
       </c>
       <c r="F11" t="n">
-        <v>2.36</v>
+        <v>2.95</v>
       </c>
       <c r="G11" t="n">
-        <v>8.130000000000001</v>
+        <v>5.62</v>
       </c>
       <c r="H11" t="n">
-        <v>9.56</v>
+        <v>10.37</v>
       </c>
       <c r="I11" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="J11" t="n">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -5692,6 +7861,421 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>3.097416867790771</v>
+      </c>
+      <c r="C2" t="n">
+        <v>4.598936198311717</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>-2.057100542122633</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-2.797612309654376</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>-5.037989495325355</v>
+      </c>
+      <c r="C4" t="n">
+        <v>3.761429134151697</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.360474198325578</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5.929255111930838</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.269955128908913</v>
+      </c>
+      <c r="C6" t="n">
+        <v>6.594241307091863</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.860893837143988</v>
+      </c>
+      <c r="C7" t="n">
+        <v>11.23301164037269</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>-0.1884556491414949</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-2.744840298861595</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6.462526532855461</v>
+      </c>
+      <c r="C9" t="n">
+        <v>9.111445733960416</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7.085439533769513</v>
+      </c>
+      <c r="C10" t="n">
+        <v>6.361727449836708</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>5.183392015140504</v>
+      </c>
+      <c r="C11" t="n">
+        <v>6.119500708664869</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>estimation_technique</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>max_error</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>max_percent_error</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>avg_error</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>avg_percent_error</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>true_pos_rate</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>false_pos_rate</t>
+        </is>
+      </c>
+      <c r="I1" s="2" t="inlineStr">
+        <is>
+          <t>runtime</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>rss_only</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7.949999999999999</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.410557184750733</v>
+      </c>
+      <c r="E2" t="n">
+        <v>2.036222222222223</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.3110682107531805</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.0001809597015380859</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rss_post_averaged</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5.305</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.6647869674185463</v>
+      </c>
+      <c r="E3" t="n">
+        <v>1.569777777777778</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.219257089482622</v>
+      </c>
+      <c r="G3" t="n">
+        <v>1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0.04761904761904762</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.0001418590545654297</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>spring_model</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6.609999999999999</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6224489795918368</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.177111111111111</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.1662050471852482</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0.02380952380952381</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.3630716800689697</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>sdp</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10.66</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.9879518072289156</v>
+      </c>
+      <c r="E5" t="n">
+        <v>3.788888888888889</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.496855608342256</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.8346879482269287</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>mds_metric</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.9090909090909092</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.7188888888888889</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.1394944340912941</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0.08471822738647461</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>mds_non_metric</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5.84</v>
+      </c>
+      <c r="D7" t="n">
+        <v>3.636363636363637</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.632</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.3073233058097867</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0.1291253566741943</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>sdp_init_spring</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>6.35</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.719954648526077</v>
+      </c>
+      <c r="E8" t="n">
+        <v>1.358666666666667</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.2058884420050273</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1.138072967529297</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5745,31 +8329,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.485</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="D2" t="n">
-        <v>9.765000000000001</v>
+        <v>7.89</v>
       </c>
       <c r="E2" t="n">
-        <v>1.845</v>
+        <v>1.94</v>
       </c>
       <c r="F2" t="n">
-        <v>1.66</v>
+        <v>1.37</v>
       </c>
       <c r="G2" t="n">
-        <v>13.285</v>
+        <v>15.93</v>
       </c>
       <c r="H2" t="n">
-        <v>12.41</v>
+        <v>6.15</v>
       </c>
       <c r="I2" t="n">
-        <v>5.06</v>
+        <v>4.27</v>
       </c>
       <c r="J2" t="n">
-        <v>4.07</v>
+        <v>4.74</v>
       </c>
       <c r="K2" t="n">
-        <v>2.755</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="3">
@@ -5777,34 +8361,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>10.485</v>
+        <v>11.43</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>6.325</v>
+        <v>5.28</v>
       </c>
       <c r="E3" t="n">
-        <v>7.67</v>
+        <v>9.02</v>
       </c>
       <c r="F3" t="n">
-        <v>14.365</v>
+        <v>17.31</v>
       </c>
       <c r="G3" t="n">
-        <v>11.405</v>
+        <v>10.14</v>
       </c>
       <c r="H3" t="n">
-        <v>1.72</v>
+        <v>2.24</v>
       </c>
       <c r="I3" t="n">
-        <v>19.29</v>
+        <v>14.52</v>
       </c>
       <c r="J3" t="n">
-        <v>16.51</v>
+        <v>19.69</v>
       </c>
       <c r="K3" t="n">
-        <v>16.255</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="4">
@@ -5812,34 +8396,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>9.765000000000001</v>
+        <v>11.64</v>
       </c>
       <c r="C4" t="n">
-        <v>6.325</v>
+        <v>7.37</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>10.885</v>
+        <v>13.47</v>
       </c>
       <c r="F4" t="n">
-        <v>7.984999999999999</v>
+        <v>9.5</v>
       </c>
       <c r="G4" t="n">
-        <v>11.63</v>
+        <v>10.93</v>
       </c>
       <c r="H4" t="n">
-        <v>8.970000000000001</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="I4" t="n">
-        <v>7.075</v>
+        <v>6.65</v>
       </c>
       <c r="J4" t="n">
-        <v>16.645</v>
+        <v>19.56</v>
       </c>
       <c r="K4" t="n">
-        <v>10.22</v>
+        <v>11.57</v>
       </c>
     </row>
     <row r="5">
@@ -5847,34 +8431,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.845</v>
+        <v>1.75</v>
       </c>
       <c r="C5" t="n">
-        <v>7.67</v>
+        <v>6.32</v>
       </c>
       <c r="D5" t="n">
-        <v>10.885</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.99</v>
+        <v>0.92</v>
       </c>
       <c r="G5" t="n">
-        <v>3.325</v>
+        <v>3.22</v>
       </c>
       <c r="H5" t="n">
-        <v>7.41</v>
+        <v>6.66</v>
       </c>
       <c r="I5" t="n">
-        <v>5.415</v>
+        <v>7.4</v>
       </c>
       <c r="J5" t="n">
-        <v>7.015</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="K5" t="n">
-        <v>5.535</v>
+        <v>8.220000000000001</v>
       </c>
     </row>
     <row r="6">
@@ -5882,34 +8466,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.66</v>
+        <v>1.95</v>
       </c>
       <c r="C6" t="n">
-        <v>14.365</v>
+        <v>11.42</v>
       </c>
       <c r="D6" t="n">
-        <v>7.984999999999999</v>
+        <v>6.47</v>
       </c>
       <c r="E6" t="n">
-        <v>0.99</v>
+        <v>1.06</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>8.35</v>
+        <v>4.91</v>
       </c>
       <c r="H6" t="n">
-        <v>8.850000000000001</v>
+        <v>7.65</v>
       </c>
       <c r="I6" t="n">
-        <v>4.48</v>
+        <v>3.3</v>
       </c>
       <c r="J6" t="n">
-        <v>5.945</v>
+        <v>7.94</v>
       </c>
       <c r="K6" t="n">
-        <v>3.225</v>
+        <v>4.09</v>
       </c>
     </row>
     <row r="7">
@@ -5917,34 +8501,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>13.285</v>
+        <v>10.64</v>
       </c>
       <c r="C7" t="n">
-        <v>11.405</v>
+        <v>12.67</v>
       </c>
       <c r="D7" t="n">
-        <v>11.63</v>
+        <v>12.33</v>
       </c>
       <c r="E7" t="n">
-        <v>3.325</v>
+        <v>3.43</v>
       </c>
       <c r="F7" t="n">
-        <v>8.35</v>
+        <v>11.79</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>11.415</v>
+        <v>7.96</v>
       </c>
       <c r="I7" t="n">
-        <v>11.74</v>
+        <v>13.38</v>
       </c>
       <c r="J7" t="n">
-        <v>6.52</v>
+        <v>6.27</v>
       </c>
       <c r="K7" t="n">
-        <v>6.78</v>
+        <v>5.43</v>
       </c>
     </row>
     <row r="8">
@@ -5952,34 +8536,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>12.41</v>
+        <v>18.67</v>
       </c>
       <c r="C8" t="n">
-        <v>1.72</v>
+        <v>1.2</v>
       </c>
       <c r="D8" t="n">
-        <v>8.970000000000001</v>
+        <v>9.73</v>
       </c>
       <c r="E8" t="n">
-        <v>7.41</v>
+        <v>8.16</v>
       </c>
       <c r="F8" t="n">
-        <v>8.850000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="G8" t="n">
-        <v>11.415</v>
+        <v>14.87</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>14.015</v>
+        <v>11.59</v>
       </c>
       <c r="J8" t="n">
-        <v>12.29</v>
+        <v>12.05</v>
       </c>
       <c r="K8" t="n">
-        <v>8.56</v>
+        <v>7.56</v>
       </c>
     </row>
     <row r="9">
@@ -5987,34 +8571,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>5.06</v>
+        <v>5.85</v>
       </c>
       <c r="C9" t="n">
-        <v>19.29</v>
+        <v>24.06</v>
       </c>
       <c r="D9" t="n">
-        <v>7.075</v>
+        <v>7.5</v>
       </c>
       <c r="E9" t="n">
-        <v>5.415</v>
+        <v>3.43</v>
       </c>
       <c r="F9" t="n">
-        <v>4.48</v>
+        <v>5.66</v>
       </c>
       <c r="G9" t="n">
-        <v>11.74</v>
+        <v>10.1</v>
       </c>
       <c r="H9" t="n">
-        <v>14.015</v>
+        <v>16.44</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>4.34</v>
+        <v>5.81</v>
       </c>
       <c r="K9" t="n">
-        <v>2.81</v>
+        <v>2.82</v>
       </c>
     </row>
     <row r="10">
@@ -6022,34 +8606,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.07</v>
+        <v>3.4</v>
       </c>
       <c r="C10" t="n">
-        <v>16.51</v>
+        <v>13.33</v>
       </c>
       <c r="D10" t="n">
-        <v>16.645</v>
+        <v>13.73</v>
       </c>
       <c r="E10" t="n">
-        <v>7.015</v>
+        <v>4.99</v>
       </c>
       <c r="F10" t="n">
-        <v>5.945</v>
+        <v>3.95</v>
       </c>
       <c r="G10" t="n">
-        <v>6.52</v>
+        <v>6.77</v>
       </c>
       <c r="H10" t="n">
-        <v>12.29</v>
+        <v>12.53</v>
       </c>
       <c r="I10" t="n">
-        <v>4.34</v>
+        <v>2.87</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>1.675</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="11">
@@ -6057,572 +8641,34 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.755</v>
+        <v>1.91</v>
       </c>
       <c r="C11" t="n">
-        <v>16.255</v>
+        <v>21.16</v>
       </c>
       <c r="D11" t="n">
-        <v>10.22</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E11" t="n">
-        <v>5.535</v>
+        <v>2.85</v>
       </c>
       <c r="F11" t="n">
-        <v>3.225</v>
+        <v>2.36</v>
       </c>
       <c r="G11" t="n">
-        <v>6.78</v>
+        <v>8.130000000000001</v>
       </c>
       <c r="H11" t="n">
-        <v>8.56</v>
+        <v>9.56</v>
       </c>
       <c r="I11" t="n">
-        <v>2.81</v>
+        <v>2.8</v>
       </c>
       <c r="J11" t="n">
-        <v>1.675</v>
+        <v>1.58</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="H1" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="J1" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="K1" s="2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="D2" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="F2" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="G2" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="H2" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="I2" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="J2" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.58</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-      <c r="D3" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="G3" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="H3" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="I3" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="J3" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="K3" t="n">
-        <v>11.49</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="C4" t="n">
-        <v>7.2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="F4" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="G4" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="J4" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="K4" t="n">
-        <v>10.49</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>2.19</v>
-      </c>
-      <c r="C5" t="n">
-        <v>9.369999999999999</v>
-      </c>
-      <c r="D5" t="n">
-        <v>6.76</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="G5" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="H5" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="I5" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="K5" t="n">
-        <v>3.83</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.16</v>
-      </c>
-      <c r="C6" t="n">
-        <v>10.34</v>
-      </c>
-      <c r="D6" t="n">
-        <v>7.84</v>
-      </c>
-      <c r="E6" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="H6" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="I6" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="J6" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="K6" t="n">
-        <v>2.95</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="C7" t="n">
-        <v>14.87</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10.87</v>
-      </c>
-      <c r="E7" t="n">
-        <v>5.51</v>
-      </c>
-      <c r="F7" t="n">
-        <v>4.68</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="I7" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.62</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="D8" t="n">
-        <v>8.109999999999999</v>
-      </c>
-      <c r="E8" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="F8" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="G8" t="n">
-        <v>14.31</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="J8" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="K8" t="n">
-        <v>10.37</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>5.63</v>
-      </c>
-      <c r="C9" t="n">
-        <v>14.64</v>
-      </c>
-      <c r="D9" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="E9" t="n">
-        <v>6.01</v>
-      </c>
-      <c r="F9" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="G9" t="n">
-        <v>4.18</v>
-      </c>
-      <c r="H9" t="n">
-        <v>13.59</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="K9" t="n">
-        <v>3.25</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4.36</v>
-      </c>
-      <c r="C10" t="n">
-        <v>12.94</v>
-      </c>
-      <c r="D10" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5.74</v>
-      </c>
-      <c r="F10" t="n">
-        <v>4.82</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6.45</v>
-      </c>
-      <c r="H10" t="n">
-        <v>11.66</v>
-      </c>
-      <c r="I10" t="n">
-        <v>2.82</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>1.92</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="C11" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="D11" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="E11" t="n">
-        <v>3.83</v>
-      </c>
-      <c r="F11" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="G11" t="n">
-        <v>5.62</v>
-      </c>
-      <c r="H11" t="n">
-        <v>10.37</v>
-      </c>
-      <c r="I11" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1.92</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C11"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="n">
-        <v>3.097416867790771</v>
-      </c>
-      <c r="C2" t="n">
-        <v>4.598936198311717</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>-2.057100542122633</v>
-      </c>
-      <c r="C3" t="n">
-        <v>-2.797612309654376</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>-5.037989495325355</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3.761429134151697</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1.360474198325578</v>
-      </c>
-      <c r="C5" t="n">
-        <v>5.929255111930838</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="n">
-        <v>2.269955128908913</v>
-      </c>
-      <c r="C6" t="n">
-        <v>6.594241307091863</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="n">
-        <v>2.860893837143988</v>
-      </c>
-      <c r="C7" t="n">
-        <v>11.23301164037269</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="n">
-        <v>-0.1884556491414949</v>
-      </c>
-      <c r="C8" t="n">
-        <v>-2.744840298861595</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="n">
-        <v>6.462526532855461</v>
-      </c>
-      <c r="C9" t="n">
-        <v>9.111445733960416</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>7.085439533769513</v>
-      </c>
-      <c r="C10" t="n">
-        <v>6.361727449836708</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5.183392015140504</v>
-      </c>
-      <c r="C11" t="n">
-        <v>6.119500708664869</v>
       </c>
     </row>
   </sheetData>
@@ -6684,31 +8730,31 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>5.92</v>
+        <v>10.44</v>
       </c>
       <c r="D2" t="n">
-        <v>5.02</v>
+        <v>9.58</v>
       </c>
       <c r="E2" t="n">
-        <v>0.29</v>
+        <v>1.84</v>
       </c>
       <c r="F2" t="n">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="G2" t="n">
-        <v>1.46</v>
+        <v>13.02</v>
       </c>
       <c r="H2" t="n">
-        <v>3.1</v>
+        <v>10.72</v>
       </c>
       <c r="I2" t="n">
-        <v>1.33</v>
+        <v>5</v>
       </c>
       <c r="J2" t="n">
-        <v>5.09</v>
+        <v>4.02</v>
       </c>
       <c r="K2" t="n">
-        <v>2.27</v>
+        <v>2.62</v>
       </c>
     </row>
     <row r="3">
@@ -6716,34 +8762,34 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.92</v>
+        <v>10.44</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9</v>
+        <v>6.24</v>
       </c>
       <c r="E3" t="n">
-        <v>6.2</v>
+        <v>7.55</v>
       </c>
       <c r="F3" t="n">
-        <v>7.09</v>
+        <v>14.06</v>
       </c>
       <c r="G3" t="n">
-        <v>7.38</v>
+        <v>11.34</v>
       </c>
       <c r="H3" t="n">
-        <v>2.82</v>
+        <v>1.64</v>
       </c>
       <c r="I3" t="n">
-        <v>7.25</v>
+        <v>18.69</v>
       </c>
       <c r="J3" t="n">
-        <v>11.01</v>
+        <v>16.2</v>
       </c>
       <c r="K3" t="n">
-        <v>8.18</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="4">
@@ -6751,34 +8797,34 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>5.02</v>
+        <v>9.58</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9</v>
+        <v>6.24</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>5.3</v>
+        <v>10.58</v>
       </c>
       <c r="F4" t="n">
-        <v>6.19</v>
+        <v>7.84</v>
       </c>
       <c r="G4" t="n">
-        <v>6.48</v>
+        <v>11.61</v>
       </c>
       <c r="H4" t="n">
-        <v>1.92</v>
+        <v>8.94</v>
       </c>
       <c r="I4" t="n">
-        <v>6.34</v>
+        <v>7.06</v>
       </c>
       <c r="J4" t="n">
-        <v>10.11</v>
+        <v>16.39</v>
       </c>
       <c r="K4" t="n">
-        <v>7.28</v>
+        <v>10.13</v>
       </c>
     </row>
     <row r="5">
@@ -6786,34 +8832,34 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.29</v>
+        <v>1.84</v>
       </c>
       <c r="C5" t="n">
-        <v>6.2</v>
+        <v>7.55</v>
       </c>
       <c r="D5" t="n">
-        <v>5.3</v>
+        <v>10.58</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="G5" t="n">
-        <v>1.18</v>
+        <v>3.32</v>
       </c>
       <c r="H5" t="n">
-        <v>3.38</v>
+        <v>7.37</v>
       </c>
       <c r="I5" t="n">
-        <v>1.04</v>
+        <v>5.04</v>
       </c>
       <c r="J5" t="n">
-        <v>4.81</v>
+        <v>6.71</v>
       </c>
       <c r="K5" t="n">
-        <v>1.98</v>
+        <v>4.84</v>
       </c>
     </row>
     <row r="6">
@@ -6821,34 +8867,34 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.17</v>
+        <v>1.63</v>
       </c>
       <c r="C6" t="n">
-        <v>7.09</v>
+        <v>14.06</v>
       </c>
       <c r="D6" t="n">
-        <v>6.19</v>
+        <v>7.84</v>
       </c>
       <c r="E6" t="n">
-        <v>0.89</v>
+        <v>0.99</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.29</v>
+        <v>7.61</v>
       </c>
       <c r="H6" t="n">
-        <v>4.27</v>
+        <v>8.77</v>
       </c>
       <c r="I6" t="n">
-        <v>0.16</v>
+        <v>4.32</v>
       </c>
       <c r="J6" t="n">
-        <v>3.92</v>
+        <v>5.6</v>
       </c>
       <c r="K6" t="n">
-        <v>1.09</v>
+        <v>3.11</v>
       </c>
     </row>
     <row r="7">
@@ -6856,34 +8902,34 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.46</v>
+        <v>13.02</v>
       </c>
       <c r="C7" t="n">
-        <v>7.38</v>
+        <v>11.34</v>
       </c>
       <c r="D7" t="n">
-        <v>6.48</v>
+        <v>11.61</v>
       </c>
       <c r="E7" t="n">
-        <v>1.18</v>
+        <v>3.32</v>
       </c>
       <c r="F7" t="n">
-        <v>0.29</v>
+        <v>7.61</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>4.56</v>
+        <v>10.87</v>
       </c>
       <c r="I7" t="n">
-        <v>0.13</v>
+        <v>11.62</v>
       </c>
       <c r="J7" t="n">
-        <v>3.63</v>
+        <v>6.52</v>
       </c>
       <c r="K7" t="n">
-        <v>0.8</v>
+        <v>6.64</v>
       </c>
     </row>
     <row r="8">
@@ -6891,34 +8937,34 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.1</v>
+        <v>10.72</v>
       </c>
       <c r="C8" t="n">
-        <v>2.82</v>
+        <v>1.64</v>
       </c>
       <c r="D8" t="n">
-        <v>1.92</v>
+        <v>8.94</v>
       </c>
       <c r="E8" t="n">
-        <v>3.38</v>
+        <v>7.37</v>
       </c>
       <c r="F8" t="n">
-        <v>4.27</v>
+        <v>8.77</v>
       </c>
       <c r="G8" t="n">
-        <v>4.56</v>
+        <v>10.87</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>4.43</v>
+        <v>13.8</v>
       </c>
       <c r="J8" t="n">
-        <v>8.19</v>
+        <v>12.29</v>
       </c>
       <c r="K8" t="n">
-        <v>5.36</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="9">
@@ -6926,34 +8972,34 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.33</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>7.25</v>
+        <v>18.69</v>
       </c>
       <c r="D9" t="n">
-        <v>6.34</v>
+        <v>7.06</v>
       </c>
       <c r="E9" t="n">
-        <v>1.04</v>
+        <v>5.04</v>
       </c>
       <c r="F9" t="n">
-        <v>0.16</v>
+        <v>4.32</v>
       </c>
       <c r="G9" t="n">
-        <v>0.13</v>
+        <v>11.62</v>
       </c>
       <c r="H9" t="n">
-        <v>4.43</v>
+        <v>13.8</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>3.77</v>
+        <v>4.08</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="10">
@@ -6961,34 +9007,34 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>5.09</v>
+        <v>4.02</v>
       </c>
       <c r="C10" t="n">
-        <v>11.01</v>
+        <v>16.2</v>
       </c>
       <c r="D10" t="n">
-        <v>10.11</v>
+        <v>16.39</v>
       </c>
       <c r="E10" t="n">
-        <v>4.81</v>
+        <v>6.71</v>
       </c>
       <c r="F10" t="n">
-        <v>3.92</v>
+        <v>5.6</v>
       </c>
       <c r="G10" t="n">
-        <v>3.63</v>
+        <v>6.52</v>
       </c>
       <c r="H10" t="n">
-        <v>8.19</v>
+        <v>12.29</v>
       </c>
       <c r="I10" t="n">
-        <v>3.77</v>
+        <v>4.08</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>2.83</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="11">
@@ -6996,31 +9042,31 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>2.27</v>
+        <v>2.62</v>
       </c>
       <c r="C11" t="n">
-        <v>8.18</v>
+        <v>15.5</v>
       </c>
       <c r="D11" t="n">
-        <v>7.28</v>
+        <v>10.13</v>
       </c>
       <c r="E11" t="n">
-        <v>1.98</v>
+        <v>4.84</v>
       </c>
       <c r="F11" t="n">
-        <v>1.09</v>
+        <v>3.11</v>
       </c>
       <c r="G11" t="n">
-        <v>0.8</v>
+        <v>6.64</v>
       </c>
       <c r="H11" t="n">
-        <v>5.36</v>
+        <v>8.5</v>
       </c>
       <c r="I11" t="n">
-        <v>0.9399999999999999</v>
+        <v>2.81</v>
       </c>
       <c r="J11" t="n">
-        <v>2.83</v>
+        <v>1.67</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
